--- a/Generate_Yearly_Report_Dispatcher/Data/Config.xlsx
+++ b/Generate_Yearly_Report_Dispatcher/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\uipath\Generate_Yearly_Report_Dispatcher\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA25C0C2-EB8A-49F7-95F2-A28DC9E06255}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7D45BB-5790-41CF-9A9D-6CB7059346F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3110" yWindow="180" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -508,7 +508,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
